--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Home/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-LT/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE12247-3BCD-3742-964B-B9E48DE2F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292CEA4-CF8A-874C-8272-0365C31F6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-spread" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="425">
   <si>
     <t>Title</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Affiliations</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORCID </t>
   </si>
   <si>
@@ -1256,6 +1253,48 @@
   </si>
   <si>
     <t>Department of Aeronautics, Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>Affiliation code</t>
+  </si>
+  <si>
+    <t>Affiliation address</t>
+  </si>
+  <si>
+    <t>CI-DL</t>
+  </si>
+  <si>
+    <t>PP-Oxf</t>
+  </si>
+  <si>
+    <t>RO-Stnf</t>
+  </si>
+  <si>
+    <t>IC-NHS-CX-PPI</t>
+  </si>
+  <si>
+    <t>Chrst-NHS</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>CI-Strth</t>
+  </si>
+  <si>
+    <t>Clttrbrdg</t>
+  </si>
+  <si>
+    <t>Uni-PSL</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Oxf-Mat</t>
   </si>
 </sst>
 </file>
@@ -1795,12 +1834,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1849,18 +1891,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K71" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Surname" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Initials" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email address" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name on Publications " dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Organisation" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Address" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Affiliations" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L71" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Surname" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Initials" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email address" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name on Publications " dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Organisation" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Address" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{35C7B8D1-2309-514C-A623-52ECA80559CB}" name="Affiliation code" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Affiliation address" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ORCID " dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
@@ -2165,10 +2208,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,12 +2226,12 @@
     <col min="6" max="6" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="55.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="49.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2211,1927 +2257,2096 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="J69" s="1"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-LT/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Home/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292CEA4-CF8A-874C-8272-0365C31F6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E948E781-3C83-994F-BF5F-FC0A29029CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="47340" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-spread" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="422">
   <si>
     <t>Title</t>
   </si>
@@ -55,15 +55,6 @@
     <t>Prof</t>
   </si>
   <si>
-    <t>Till</t>
-  </si>
-  <si>
-    <t>Eulenspiegel</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>galen.aymar@gmail.com</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>Dascalu</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
     <t>t.dascalu19@imperial.ac.uk</t>
   </si>
   <si>
@@ -361,9 +349,6 @@
     <t>Kuo</t>
   </si>
   <si>
-    <t>TJ</t>
-  </si>
-  <si>
     <t>ta-jen.kuo18@imperial.ac.uk</t>
   </si>
   <si>
@@ -1295,6 +1280,12 @@
   </si>
   <si>
     <t>Oxf-Mat</t>
+  </si>
+  <si>
+    <t>T.S.</t>
+  </si>
+  <si>
+    <t>T.J.</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1882,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L71" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L70" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L70" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="10"/>
@@ -2208,13 +2199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2257,10 +2248,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -2269,416 +2260,413 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>420</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>421</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>111</v>
@@ -2687,54 +2675,62 @@
         <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>413</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>414</v>
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2745,157 +2741,154 @@
         <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="H19" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>404</v>
+      <c r="G20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>149</v>
@@ -2904,119 +2897,114 @@
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="J22" s="1"/>
+      <c r="K22" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -3029,174 +3017,179 @@
         <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="K26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>219</v>
@@ -3205,53 +3198,53 @@
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="F32" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3259,43 +3252,41 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>239</v>
@@ -3304,7 +3295,7 @@
         <v>240</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>241</v>
@@ -3314,7 +3305,7 @@
     </row>
     <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>242</v>
@@ -3323,7 +3314,7 @@
         <v>243</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>244</v>
@@ -3332,131 +3323,131 @@
         <v>245</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
@@ -3466,53 +3457,53 @@
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
@@ -3522,60 +3513,60 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>288</v>
@@ -3593,10 +3584,10 @@
         <v>292</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
@@ -3612,26 +3603,26 @@
         <v>294</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>298</v>
@@ -3640,7 +3631,7 @@
         <v>299</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>300</v>
@@ -3649,78 +3640,78 @@
         <v>301</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J48" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="J49" s="1"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>314</v>
@@ -3729,147 +3720,147 @@
         <v>315</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>336</v>
@@ -3878,17 +3869,17 @@
         <v>337</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>338</v>
@@ -3897,119 +3888,119 @@
         <v>339</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>357</v>
@@ -4018,17 +4009,17 @@
         <v>358</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>359</v>
@@ -4037,68 +4028,73 @@
         <v>360</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J61" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>370</v>
@@ -4107,22 +4103,17 @@
         <v>371</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="J63" s="1"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>372</v>
@@ -4131,35 +4122,37 @@
         <v>373</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>379</v>
@@ -4168,19 +4161,17 @@
         <v>380</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J65" s="1"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>381</v>
@@ -4189,164 +4180,136 @@
         <v>382</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>216</v>
+        <v>405</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Home/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E948E781-3C83-994F-BF5F-FC0A29029CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42564BF-1EFB-5540-A4F6-17C9952AA9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="47340" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="457">
   <si>
     <t>Title</t>
   </si>
@@ -1286,6 +1286,111 @@
   </si>
   <si>
     <t>T.J.</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Spiers</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>david.c.speirs@STRATH.AC.UK</t>
+  </si>
+  <si>
+    <t>D. Spiers</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Gujral</t>
+  </si>
+  <si>
+    <t>Iain</t>
+  </si>
+  <si>
+    <t>McNeish</t>
+  </si>
+  <si>
+    <t>I.</t>
+  </si>
+  <si>
+    <t>Imperial College NHS Healthcare Trust, The Bays, South Wharf Road, St Mary's Hospital, London W2 1NY, UK</t>
+  </si>
+  <si>
+    <t>d.gujral@nhs.net</t>
+  </si>
+  <si>
+    <t>D. Gujral</t>
+  </si>
+  <si>
+    <t>IC-NHST</t>
+  </si>
+  <si>
+    <t>Division of Cancer, Department of Surgery and Cancer, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>i.mcneish@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>I. McNeish</t>
+  </si>
+  <si>
+    <t>SnC-Imp</t>
+  </si>
+  <si>
+    <t>Towe</t>
+  </si>
+  <si>
+    <t>Leo Cancer Care, Broadview, Windmill Hill, Hailsham, East Sussex, BN27 4RY, UK</t>
+  </si>
+  <si>
+    <t>LEO-CC</t>
+  </si>
+  <si>
+    <t>S. Towe</t>
+  </si>
+  <si>
+    <t>stephen@leocancercare.com</t>
+  </si>
+  <si>
+    <t>Xiao</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>rachel.xiao@CORERAIN.COM</t>
+  </si>
+  <si>
+    <t>R. Xiao</t>
+  </si>
+  <si>
+    <t>Corerain</t>
+  </si>
+  <si>
+    <t>Corerain Technologies, 14F, Changfu Jinmao Building (CFC), Trade-free Zone, Futian District, Shenzhen, Guangdong, China</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>tbecker@MAXELER.COM</t>
+  </si>
+  <si>
+    <t>T. Becker</t>
+  </si>
+  <si>
+    <t>Maxeler</t>
+  </si>
+  <si>
+    <t>Maxeler Technologies Limited, 3 Hammersmith Grove, London W6 0ND, UK</t>
+  </si>
+  <si>
+    <t>Tobias</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1987,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L70" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L70" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L76" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L76" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="10"/>
@@ -2199,13 +2304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,7 +3051,7 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3141,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -3122,7 +3227,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -4310,6 +4415,179 @@
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Home/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-LT/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42564BF-1EFB-5540-A4F6-17C9952AA9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F535E-C740-AF44-98FA-62831770A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="47340" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-spread" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="461">
   <si>
     <t>Title</t>
   </si>
@@ -1391,6 +1391,18 @@
   </si>
   <si>
     <t>Tobias</t>
+  </si>
+  <si>
+    <t>Number of affiliations</t>
+  </si>
+  <si>
+    <t>Affiliation code2</t>
+  </si>
+  <si>
+    <t>Affiliation address3</t>
+  </si>
+  <si>
+    <t>0000-0002-3181-0351</t>
   </si>
 </sst>
 </file>
@@ -1930,12 +1942,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1987,19 +2008,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L76" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L76" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Surname" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Initials" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email address" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name on Publications " dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Organisation" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Address" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{35C7B8D1-2309-514C-A623-52ECA80559CB}" name="Affiliation code" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Affiliation address" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:O76" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O76" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Surname" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Initials" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email address" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name on Publications " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Organisation" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Address" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{94715DB0-81C5-2348-A317-347B2670E890}" name="Number of affiliations" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{35C7B8D1-2309-514C-A623-52ECA80559CB}" name="Affiliation code" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Affiliation address" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{5774CA07-C572-0D42-9D06-FC5088A3DB4C}" name="Affiliation code2" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7E966670-6060-2B47-B19D-6AB3432F477A}" name="Affiliation address3" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ORCID " dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
@@ -2304,13 +2328,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2321,13 +2345,15 @@
     <col min="5" max="5" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="55.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="55.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="49.83203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="55.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.83203125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="55.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="49.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2353,19 +2379,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2390,13 +2425,18 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2421,12 +2461,17 @@
       <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2451,17 +2496,22 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2486,15 +2536,20 @@
       <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2519,10 +2574,15 @@
       <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2547,10 +2607,15 @@
       <c r="H7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2575,10 +2640,15 @@
       <c r="H8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2600,15 +2670,20 @@
       <c r="H9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2633,17 +2708,22 @@
       <c r="H10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -2668,12 +2748,17 @@
       <c r="H11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2" t="s">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -2698,17 +2783,22 @@
       <c r="H12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2733,18 +2823,23 @@
       <c r="H13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -2766,10 +2861,15 @@
       <c r="H14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2789,20 +2889,25 @@
         <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2821,21 +2926,32 @@
       <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="N16" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2860,10 +2976,15 @@
       <c r="H17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>128</v>
       </c>
@@ -2885,17 +3006,22 @@
       <c r="H18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>128</v>
       </c>
@@ -2920,15 +3046,20 @@
       <c r="H19" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2953,15 +3084,20 @@
       <c r="H20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2983,15 +3119,20 @@
       <c r="H21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -3013,12 +3154,17 @@
       <c r="H22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2" t="s">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3043,15 +3189,20 @@
       <c r="H23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3076,17 +3227,22 @@
       <c r="H24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -3108,10 +3264,15 @@
       <c r="H25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -3136,12 +3297,17 @@
       <c r="H26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2" t="s">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -3166,15 +3332,20 @@
       <c r="H27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3196,10 +3367,15 @@
       <c r="H28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3224,10 +3400,15 @@
       <c r="H29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -3252,17 +3433,22 @@
       <c r="H30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3284,15 +3470,20 @@
       <c r="H31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -3317,12 +3508,17 @@
       <c r="H32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2" t="s">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -3347,12 +3543,17 @@
       <c r="H33" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2" t="s">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -3377,10 +3578,15 @@
       <c r="H34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -3405,10 +3611,15 @@
       <c r="H35" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -3433,12 +3644,17 @@
       <c r="H36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2" t="s">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -3463,12 +3679,17 @@
       <c r="H37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="2" t="s">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -3493,15 +3714,20 @@
       <c r="H38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
@@ -3526,10 +3752,15 @@
       <c r="H39" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -3554,10 +3785,15 @@
       <c r="H40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -3582,10 +3818,15 @@
       <c r="H41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -3610,10 +3851,15 @@
       <c r="H42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -3638,10 +3884,15 @@
       <c r="H43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -3666,10 +3917,15 @@
       <c r="H44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -3694,10 +3950,15 @@
       <c r="H45" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -3722,10 +3983,15 @@
       <c r="H46" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -3750,10 +4016,15 @@
       <c r="H47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -3778,15 +4049,20 @@
       <c r="H48" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -3811,10 +4087,15 @@
       <c r="H49" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3839,10 +4120,15 @@
       <c r="H50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3867,10 +4153,15 @@
       <c r="H51" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -3895,10 +4186,15 @@
       <c r="H52" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -3923,10 +4219,15 @@
       <c r="H53" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>128</v>
       </c>
@@ -3951,10 +4252,15 @@
       <c r="H54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -3979,10 +4285,15 @@
       <c r="H55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -4007,10 +4318,15 @@
       <c r="H56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
@@ -4035,10 +4351,15 @@
       <c r="H57" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
@@ -4063,10 +4384,15 @@
       <c r="H58" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -4091,10 +4417,15 @@
       <c r="H59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -4119,10 +4450,15 @@
       <c r="H60" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -4147,15 +4483,20 @@
       <c r="H61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
@@ -4180,15 +4521,20 @@
       <c r="H62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -4213,10 +4559,15 @@
       <c r="H63" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -4241,12 +4592,17 @@
       <c r="H64" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
@@ -4271,10 +4627,15 @@
       <c r="H65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -4299,10 +4660,15 @@
       <c r="H66" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -4327,12 +4693,20 @@
       <c r="H67" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
       <c r="J67" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
@@ -4357,10 +4731,15 @@
       <c r="H68" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -4385,10 +4764,15 @@
       <c r="H69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
@@ -4413,10 +4797,15 @@
       <c r="H70" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J70" s="1"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>20</v>
       </c>
@@ -4441,15 +4830,20 @@
       <c r="H71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>20</v>
       </c>
@@ -4474,10 +4868,15 @@
       <c r="H72" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -4502,10 +4901,15 @@
       <c r="H73" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -4530,10 +4934,15 @@
       <c r="H74" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>128</v>
       </c>
@@ -4558,10 +4967,15 @@
       <c r="H75" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>20</v>
       </c>
@@ -4586,8 +5000,13 @@
       <c r="H76" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="J76" s="1"/>
-      <c r="K76" s="2"/>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-LT/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Imp/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F535E-C740-AF44-98FA-62831770A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD39990-5CC2-634A-AAB4-86A730581FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29160" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-spread" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="462">
   <si>
     <t>Title</t>
   </si>
@@ -1012,15 +1012,9 @@
     <t>Anthea</t>
   </si>
   <si>
-    <t>Macintosh Laroque</t>
-  </si>
-  <si>
     <t>anthea.macintosh-larocque18@IMPERIAL.AC.UK</t>
   </si>
   <si>
-    <t>A. Macintosh Laroque</t>
-  </si>
-  <si>
     <t>Hin Tung</t>
   </si>
   <si>
@@ -1402,7 +1396,16 @@
     <t>Affiliation address3</t>
   </si>
   <si>
-    <t>0000-0002-3181-0351</t>
+    <t>Macintosh-LaRoque</t>
+  </si>
+  <si>
+    <t>A.E.</t>
+  </si>
+  <si>
+    <t>Anthea E. Macintosh-LaRoque</t>
+  </si>
+  <si>
+    <t>0000-0001-8212-2682</t>
   </si>
 </sst>
 </file>
@@ -2331,10 +2334,10 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2379,19 +2382,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
@@ -2500,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>36</v>
@@ -2540,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>45</v>
@@ -2593,7 +2596,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
@@ -2674,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>69</v>
@@ -2787,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>96</v>
@@ -2827,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>105</v>
@@ -2850,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>109</v>
@@ -2930,7 +2933,7 @@
         <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -2942,14 +2945,12 @@
         <v>110</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -3010,10 +3011,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -3038,13 +3039,13 @@
         <v>136</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -3053,7 +3054,7 @@
         <v>168</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -3088,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>143</v>
@@ -3193,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>162</v>
@@ -3231,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>170</v>
@@ -3336,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>192</v>
@@ -3437,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>212</v>
@@ -3474,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>218</v>
@@ -3718,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>218</v>
@@ -4053,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>308</v>
@@ -4235,19 +4236,19 @@
         <v>329</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>95</v>
@@ -4258,26 +4259,28 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>115</v>
@@ -4298,19 +4301,19 @@
         <v>15</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>168</v>
@@ -4334,22 +4337,22 @@
         <v>199</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4364,25 +4367,25 @@
         <v>20</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -4400,22 +4403,22 @@
         <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -4430,25 +4433,25 @@
         <v>20</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4463,19 +4466,19 @@
         <v>20</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>57</v>
@@ -4501,19 +4504,19 @@
         <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>57</v>
@@ -4539,19 +4542,19 @@
         <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>230</v>
@@ -4572,19 +4575,19 @@
         <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>57</v>
@@ -4607,19 +4610,19 @@
         <v>20</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>263</v>
@@ -4640,25 +4643,25 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -4673,19 +4676,19 @@
         <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -4697,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>36</v>
@@ -4714,16 +4717,16 @@
         <v>237</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>103</v>
@@ -4744,19 +4747,19 @@
         <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>210</v>
@@ -4777,25 +4780,25 @@
         <v>20</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4810,19 +4813,19 @@
         <v>20</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>85</v>
@@ -4834,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>218</v>
@@ -4848,25 +4851,25 @@
         <v>20</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -4881,25 +4884,25 @@
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="E73" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -4917,22 +4920,22 @@
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -4947,25 +4950,25 @@
         <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -4980,25 +4983,25 @@
         <v>20</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Imp/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-LT/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD39990-5CC2-634A-AAB4-86A730581FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBAD7C6-3701-9E43-82FA-EE7446FEB104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29160" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-spread" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="466">
   <si>
     <t>Title</t>
   </si>
@@ -124,9 +124,6 @@
     <t>E. Boella</t>
   </si>
   <si>
-    <t>CI-Lanc</t>
-  </si>
-  <si>
     <t>Department of Physics, Lancaster University, Bailrigg, Lancaster LA1 4YW, UK</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>W. G. Jones</t>
   </si>
   <si>
-    <t>Phys-Imp</t>
-  </si>
-  <si>
     <t>Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
   </si>
   <si>
@@ -367,9 +361,6 @@
     <t>Ajit Kurup</t>
   </si>
   <si>
-    <t>ICL-Phys</t>
-  </si>
-  <si>
     <t>STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t>Wayne Luk</t>
   </si>
   <si>
-    <t>ICL-Comp</t>
-  </si>
-  <si>
     <t>Department of Computing, Imperial College London, Exhibition Road, London SW7 2AZ</t>
   </si>
   <si>
@@ -634,9 +622,6 @@
     <t>J.W.G. Thomason</t>
   </si>
   <si>
-    <t xml:space="preserve">STFC, Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK </t>
-  </si>
-  <si>
     <t>Carsten</t>
   </si>
   <si>
@@ -658,9 +643,6 @@
     <t>Department of Physics, University of Liverpool, Liverpool L69 7ZE, UK</t>
   </si>
   <si>
-    <t>Cockcroft Institute Daresbury WA4 4AD, UK</t>
-  </si>
-  <si>
     <t>0000-0001-7085-0973</t>
   </si>
   <si>
@@ -778,9 +760,6 @@
     <t>W. Bertsche</t>
   </si>
   <si>
-    <t>Manch-CI</t>
-  </si>
-  <si>
     <t>Department of Physics and Astronomy, The University of Manchester, Oxford Rd, Manchester, M13 9PL, UK</t>
   </si>
   <si>
@@ -1051,12 +1030,6 @@
     <t>J. Matheson</t>
   </si>
   <si>
-    <t>STFC-RAL</t>
-  </si>
-  <si>
-    <t>STFC, Rutherford Appleton Laboratory, Didcot, OX11 0QX3, UK</t>
-  </si>
-  <si>
     <t>Rajeev</t>
   </si>
   <si>
@@ -1324,18 +1297,12 @@
     <t>IC-NHST</t>
   </si>
   <si>
-    <t>Division of Cancer, Department of Surgery and Cancer, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
-  </si>
-  <si>
     <t>i.mcneish@imperial.ac.uk</t>
   </si>
   <si>
     <t>I. McNeish</t>
   </si>
   <si>
-    <t>SnC-Imp</t>
-  </si>
-  <si>
     <t>Towe</t>
   </si>
   <si>
@@ -1406,13 +1373,58 @@
   </si>
   <si>
     <t>0000-0001-8212-2682</t>
+  </si>
+  <si>
+    <t>Phys-ICL</t>
+  </si>
+  <si>
+    <t>Phys-Lanc</t>
+  </si>
+  <si>
+    <t>Comp-ICL</t>
+  </si>
+  <si>
+    <t>R. McLauchlan</t>
+  </si>
+  <si>
+    <t>Z. Najmudin</t>
+  </si>
+  <si>
+    <t>P. Price</t>
+  </si>
+  <si>
+    <t>W. Shields</t>
+  </si>
+  <si>
+    <t>C. Whyte</t>
+  </si>
+  <si>
+    <t>Phys-Manch</t>
+  </si>
+  <si>
+    <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>DG Unit, CERN, CH-1211 Geneva 23, Switzerland</t>
+  </si>
+  <si>
+    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Didcot, OX11 0QX3, UK</t>
+  </si>
+  <si>
+    <t>ISIS Department, STFC Rutherford Appleton Laboratory, Didcot, OX11 0QX3, UK</t>
+  </si>
+  <si>
+    <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Didcot, OX11 0QX3, UK</t>
+  </si>
+  <si>
+    <t>CLF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1547,8 +1559,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,8 +1747,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1844,6 +1869,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1889,7 +1925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1899,6 +1935,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2334,10 +2376,10 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O54" sqref="O54"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2382,19 +2424,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
@@ -2494,24 +2536,24 @@
         <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -2519,34 +2561,34 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2557,25 +2599,25 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -2590,25 +2632,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2623,25 +2665,25 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2656,31 +2698,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2691,65 +2733,65 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2758,47 +2800,47 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="68" x14ac:dyDescent="0.2">
@@ -2806,40 +2848,40 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2847,22 +2889,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2877,25 +2919,25 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2904,7 +2946,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2915,40 +2957,40 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="N16" s="2"/>
     </row>
@@ -2957,25 +2999,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2987,34 +3029,34 @@
     </row>
     <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -3024,37 +3066,37 @@
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -3065,34 +3107,34 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3103,31 +3145,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3138,31 +3183,39 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3170,34 +3223,34 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3208,39 +3261,39 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3248,22 +3301,25 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3278,25 +3334,25 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -3305,7 +3361,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3313,34 +3369,34 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3351,22 +3407,25 @@
         <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -3381,25 +3440,25 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -3414,31 +3473,31 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>212</v>
@@ -3446,7 +3505,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3454,31 +3513,34 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="1">
+        <v>210</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="5">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>218</v>
+      <c r="J31" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3489,25 +3551,25 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -3516,7 +3578,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3524,25 +3586,25 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3551,7 +3613,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3559,25 +3621,25 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -3592,25 +3654,25 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3625,25 +3687,25 @@
         <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -3652,7 +3714,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3660,34 +3722,39 @@
         <v>20</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>252</v>
+        <v>459</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3695,34 +3762,34 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3733,25 +3800,25 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3766,30 +3833,35 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="2"/>
@@ -3799,25 +3871,25 @@
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -3832,25 +3904,25 @@
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -3865,25 +3937,25 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>282</v>
+        <v>461</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -3898,30 +3970,35 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>153</v>
+        <v>451</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="2"/>
@@ -3931,25 +4008,25 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -3964,25 +4041,25 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -3997,25 +4074,25 @@
         <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4030,34 +4107,34 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4068,25 +4145,25 @@
         <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4101,25 +4178,25 @@
         <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -4134,25 +4211,25 @@
         <v>20</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -4167,25 +4244,25 @@
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4200,25 +4277,25 @@
         <v>20</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -4230,28 +4307,28 @@
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -4260,7 +4337,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -4268,25 +4345,25 @@
         <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4301,25 +4378,25 @@
         <v>15</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4329,30 +4406,30 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4362,30 +4439,30 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -4395,7 +4472,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
@@ -4403,22 +4480,22 @@
         <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -4428,30 +4505,30 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4466,37 +4543,41 @@
         <v>20</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>110</v>
+        <v>451</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -4504,25 +4585,25 @@
         <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -4542,25 +4623,25 @@
         <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -4572,34 +4653,34 @@
     </row>
     <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -4610,25 +4691,25 @@
         <v>20</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -4643,25 +4724,25 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -4676,34 +4757,34 @@
         <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4714,25 +4795,25 @@
         <v>20</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -4747,25 +4828,25 @@
         <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -4780,25 +4861,25 @@
         <v>20</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4813,34 +4894,34 @@
         <v>20</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -4851,25 +4932,25 @@
         <v>20</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
@@ -4884,25 +4965,25 @@
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>437</v>
+        <v>171</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>434</v>
+        <v>172</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -4917,25 +4998,25 @@
         <v>15</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -4947,28 +5028,28 @@
     </row>
     <row r="75" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -4983,25 +5064,25 @@
         <v>20</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Imp/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Home/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F253B-5EDB-5D4F-822A-3C027DFA7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8EE44-8CDE-2547-94F5-9E818AE19FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="482">
   <si>
     <t>Title</t>
   </si>
@@ -1460,6 +1460,12 @@
   </si>
   <si>
     <t>Division of Cancer Sciences, Faculty of Biology, Medicine and Health, The University of Manchester, The Christie Proton Therapy Centre, \\ \&gt; The Cristie NHS Foundation Trust, Wimslow Rd, Manchester M20 4BX</t>
+  </si>
+  <si>
+    <t>N.P.</t>
+  </si>
+  <si>
+    <t>R.A.</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2391,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2661,7 +2667,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -2979,7 +2985,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>481</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>140</v>

--- a/11-CollaborationList/new-spread.xlsx
+++ b/11-CollaborationList/new-spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/CubMac-Home/CCAP/18-LhARA/00-Admin/00b-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8EE44-8CDE-2547-94F5-9E818AE19FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B695099-37AD-274B-BEC5-4C5E89D559CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="483">
   <si>
     <t>Title</t>
   </si>
@@ -1336,9 +1336,6 @@
     <t>Aero-ICL</t>
   </si>
   <si>
-    <t>Department of Aeronautics, Department of Physics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
@@ -1466,13 +1463,19 @@
   </si>
   <si>
     <t>R.A.</t>
+  </si>
+  <si>
+    <t>Department of Aeronautics, Imperial College London, Exhibition Road, London SW7 2AZ, UK</t>
+  </si>
+  <si>
+    <t>Head of the Joint Department of Physics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1603,6 +1606,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1789,7 +1799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1904,6 +1914,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1949,9 +1970,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2388,10 +2412,10 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2691,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -2854,7 +2878,7 @@
         <v>114</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -2985,7 +3009,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>140</v>
@@ -3882,7 +3906,13 @@
         <v>312</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4007,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,7 +4072,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -4071,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -4129,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -4187,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>148</v>
       </c>
@@ -4219,7 +4249,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -4248,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
@@ -4277,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -4306,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -4335,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -4364,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -4393,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -4434,7 +4464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -4469,7 +4499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -4496,6 +4526,9 @@
       </c>
       <c r="I64" s="1">
         <v>0</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,7 +4737,7 @@
         <v>437</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -4715,19 +4748,19 @@
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>97</v>
@@ -4750,25 +4783,25 @@
         <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -4779,19 +4812,19 @@
         <v>43</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>203</v>
@@ -4811,22 +4844,22 @@
         <v>81</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -4837,25 +4870,25 @@
         <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -4866,25 +4899,25 @@
         <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -4895,25 +4928,25 @@
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
